--- a/data/Samantha BarrónT2-2024.xlsx
+++ b/data/Samantha BarrónT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>600.429405</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -649,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +664,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -669,6 +673,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -676,6 +681,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1019,6 +1025,7 @@
         <v>0.00145719</v>
       </c>
     </row>
+    <row r="34"/>
     <row r="35">
       <c r="C35" s="6" t="inlineStr">
         <is>
@@ -1044,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +1064,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1064,6 +1073,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1071,6 +1081,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1206,6 +1217,7 @@
         <v>0.00092795</v>
       </c>
     </row>
+    <row r="18"/>
     <row r="19">
       <c r="C19" s="6" t="inlineStr">
         <is>
